--- a/data/trans_camb/P19_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,47 +704,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +754,42 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 16,51</t>
+          <t>-7,38; 24,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 4,75</t>
+          <t>-3,75; 28,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 10,26</t>
+          <t>-6,88; 24,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 7,77</t>
+          <t>-7,54; 24,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 2,87</t>
+          <t>-10,57; 11,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 2,15</t>
+          <t>-9,25; 10,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,03</t>
+          <t>-6,14; 11,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,58</t>
+          <t>-11,56; 10,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 3,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 14,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 14,55</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 14,03</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 13,02</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 100,04</t>
+          <t>-8,95; 41,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 32,28</t>
+          <t>-4,39; 49,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 67,91</t>
+          <t>-8,12; 39,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 49,95</t>
+          <t>-8,94; 41,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 44,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 43,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 14,42</t>
+          <t>-12,54; 16,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 12,8</t>
+          <t>-11,07; 15,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 49,87</t>
+          <t>-7,36; 16,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 31,22</t>
+          <t>-13,12; 14,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 21,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 21,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 21,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 21,07</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 20,65</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 18,89</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,54</t>
+          <t>-9,8; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,96</t>
+          <t>-6,36; 5,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,36</t>
+          <t>-7,55; 5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,55</t>
+          <t>-4,39; 8,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -2,81</t>
+          <t>-7,09; 5,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 1,41</t>
+          <t>-3,45; 7,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,17</t>
+          <t>-1,24; 9,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -0,49</t>
+          <t>3,1; 14,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; -1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -0,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 2,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 4,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 5,93</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 9,43</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,58%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-24,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 29,79</t>
+          <t>-11,23; 4,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 13,1</t>
+          <t>-7,28; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 22,58</t>
+          <t>-8,52; 6,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 3,66</t>
+          <t>-4,97; 10,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 19,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -15,11</t>
+          <t>-8,39; 7,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 7,71</t>
+          <t>-4,1; 10,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 18,28</t>
+          <t>-1,44; 11,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -2,59</t>
+          <t>3,63; 18,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-38,55; -7,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-35,46; -5,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 2,97</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 5,83</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 7,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 11,65</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>14,25</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,68</t>
+          <t>-1,63; 12,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,6</t>
+          <t>-0,87; 12,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -3,5</t>
+          <t>2,29; 15,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -0,16</t>
+          <t>5,71; 19,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -7,06</t>
+          <t>1,35; 15,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -6,17</t>
+          <t>-2,27; 11,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,25</t>
+          <t>7,88; 20,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,52</t>
+          <t>9,5; 22,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -5,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 11,89</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 11,06</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 16,42</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 19,13</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,92%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,7%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-49,03%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,2%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-47,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-44,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 21,16</t>
+          <t>-1,96; 17,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 15,96</t>
+          <t>-0,75; 17,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,51; -16,88</t>
+          <t>2,84; 21,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,25; -0,19</t>
+          <t>6,75; 26,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,51; -0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,92; -34,74</t>
+          <t>1,81; 22,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,7; -27,02</t>
+          <t>-2,96; 16,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 1,79</t>
+          <t>10,25; 30,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 2,6</t>
+          <t>12,02; 33,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-58,72; -32,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-58,16; -26,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 16,23</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 15,36</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 22,55</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 26,31</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,63</t>
+          <t>-4,26; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,08</t>
+          <t>-6,35; 5,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,06</t>
+          <t>3,79; 12,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -4,49</t>
+          <t>-5,61; 3,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -2,24</t>
+          <t>-6,15; 4,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -0,22</t>
+          <t>-0,53; 9,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; -1,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 3,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 4,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 10,43</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-34,03%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-24,41%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 21,77</t>
+          <t>-5,11; 6,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 6,38</t>
+          <t>-7,7; 7,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -0,11</t>
+          <t>4,72; 15,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -22,06</t>
+          <t>-6,99; 4,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -10,91</t>
+          <t>-7,71; 6,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 8,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -1,2</t>
+          <t>-0,63; 13,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -16,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-31,33; -9,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 4,06</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 5,88</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 13,38</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 4,17</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 5,95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 6,79</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 10,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 4,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 4,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 10,06</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 10,61</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 3,17</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 4,55</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 7,73</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 9,92</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 5,27</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 7,52</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 8,53</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 13,32</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 5,49</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 13,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 13,84</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 4,06</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 5,81</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 9,88</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 12,59</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
